--- a/src/test/java/Resources/Excel.xlsx
+++ b/src/test/java/Resources/Excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedacherkiy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedacherkiy/Documents/workspace/DataDrivenFrameWork/src/test/java/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="28160" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
